--- a/tablapruebasams.xlsx
+++ b/tablapruebasams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8388c084c324a5d7/Documentos/GitHub/PT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="8_{D2DC5787-BD80-4CD7-BC95-E015144D3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE1522F-149E-413A-B058-BCD80C88D34E}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="8_{D2DC5787-BD80-4CD7-BC95-E015144D3CB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FCEF97-A46C-4972-88FE-D044EF8AEAC5}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38940" windowHeight="15840" xr2:uid="{0C53E6D6-BF4D-4349-9F30-F344287165A7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>a/ms</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>7.85-8.14</t>
+  </si>
+  <si>
+    <t>a=1</t>
+  </si>
+  <si>
+    <t>ms=2</t>
   </si>
 </sst>
 </file>
@@ -246,12 +252,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -266,8 +284,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -283,6 +303,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -582,15 +606,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23537119-D014-4850-839B-361AECA15E1A}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -619,7 +643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -648,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -677,7 +701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -706,7 +730,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.8</v>
       </c>
@@ -735,7 +759,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -764,7 +788,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -793,7 +817,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -822,7 +846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -849,6 +873,373 @@
       </c>
       <c r="I9" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="E11">
+        <v>1.2</v>
+      </c>
+      <c r="F11">
+        <v>1.6</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>3</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>0.2</v>
+      </c>
+      <c r="B12">
+        <f>ABS(7.95-8.65)</f>
+        <v>0.70000000000000018</v>
+      </c>
+      <c r="C12">
+        <f>ABS(7.94-8.17)</f>
+        <v>0.22999999999999954</v>
+      </c>
+      <c r="D12">
+        <f>ABS(7.9-8.68)</f>
+        <v>0.77999999999999936</v>
+      </c>
+      <c r="E12">
+        <f>ABS(7.95-8.48)</f>
+        <v>0.53000000000000025</v>
+      </c>
+      <c r="F12">
+        <f>ABS(8.13-8.55)</f>
+        <v>0.41999999999999993</v>
+      </c>
+      <c r="G12">
+        <f>ABS(8.04-8.46)</f>
+        <v>0.42000000000000171</v>
+      </c>
+      <c r="H12">
+        <f>ABS(8.21-8.41)</f>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="I12">
+        <f>ABS(7.69-8.48)</f>
+        <v>0.79</v>
+      </c>
+      <c r="J12">
+        <f>SUM(B12:I12)</f>
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>0.4</v>
+      </c>
+      <c r="B13">
+        <f>ABS(7.98-8.53)</f>
+        <v>0.54999999999999893</v>
+      </c>
+      <c r="C13">
+        <f>ABS(8.08-8.65)</f>
+        <v>0.57000000000000028</v>
+      </c>
+      <c r="D13">
+        <f>ABS(7.98-8.49)</f>
+        <v>0.50999999999999979</v>
+      </c>
+      <c r="E13">
+        <f>ABS(7.96-8.35)</f>
+        <v>0.38999999999999968</v>
+      </c>
+      <c r="F13">
+        <f>ABS(7.93-8.29)</f>
+        <v>0.35999999999999943</v>
+      </c>
+      <c r="G13">
+        <f>ABS(8.08-8.26)</f>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="H13">
+        <f>ABS(7.94-8.42)</f>
+        <v>0.47999999999999954</v>
+      </c>
+      <c r="I13">
+        <f>ABS(8.18-8.51)</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="J13">
+        <f>SUM(B13:I13)</f>
+        <v>3.3699999999999974</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>0.6</v>
+      </c>
+      <c r="B14">
+        <f>ABS(8.28-8.63)</f>
+        <v>0.35000000000000142</v>
+      </c>
+      <c r="C14">
+        <f>ABS(7.96-8.38)</f>
+        <v>0.42000000000000082</v>
+      </c>
+      <c r="D14">
+        <f>ABS(8.02-8.27)</f>
+        <v>0.25</v>
+      </c>
+      <c r="E14">
+        <f>ABS(7.92-8.59)</f>
+        <v>0.66999999999999993</v>
+      </c>
+      <c r="F14">
+        <f>ABS(8.03-8.47)</f>
+        <v>0.44000000000000128</v>
+      </c>
+      <c r="G14">
+        <f>ABS(7.92-8.55)</f>
+        <v>0.63000000000000078</v>
+      </c>
+      <c r="H14">
+        <f>ABS(7.99-8.62)</f>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="I14">
+        <f>ABS(8.07-8.7)</f>
+        <v>0.62999999999999901</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ref="J14:J19" si="0">SUM(B14:I14)</f>
+        <v>4.0200000000000022</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>0.8</v>
+      </c>
+      <c r="B15">
+        <f>ABS(7.69-8.47)</f>
+        <v>0.78000000000000025</v>
+      </c>
+      <c r="C15">
+        <f>ABS(7.98-8.67)</f>
+        <v>0.6899999999999995</v>
+      </c>
+      <c r="D15">
+        <f>ABS(8.18-8.56)</f>
+        <v>0.38000000000000078</v>
+      </c>
+      <c r="E15">
+        <f>ABS(8.12-8.43)</f>
+        <v>0.3100000000000005</v>
+      </c>
+      <c r="F15">
+        <f>ABS(7.97-8.37)</f>
+        <v>0.39999999999999947</v>
+      </c>
+      <c r="G15">
+        <f>ABS(7.98-8.6)</f>
+        <v>0.61999999999999922</v>
+      </c>
+      <c r="H15">
+        <f>ABS(7.97-8.27)</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="I15">
+        <f>ABS(8.11-8.36)</f>
+        <v>0.25</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.7299999999999995</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <f>ABS(8.14-8.32)</f>
+        <v>0.17999999999999972</v>
+      </c>
+      <c r="C16">
+        <f>ABS(8.05-8.33)</f>
+        <v>0.27999999999999936</v>
+      </c>
+      <c r="D16">
+        <f>ABS(7.82-8.32)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E16">
+        <f>ABS(7.89-8.56)</f>
+        <v>0.67000000000000082</v>
+      </c>
+      <c r="F16">
+        <f>ABS(8.11-8.38)</f>
+        <v>0.27000000000000135</v>
+      </c>
+      <c r="G16" s="2">
+        <f>ABS(8.09-8.25)</f>
+        <v>0.16000000000000014</v>
+      </c>
+      <c r="H16">
+        <f>ABS(7.88-8.17)</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="I16">
+        <f>ABS(7.87-8.45)</f>
+        <v>0.57999999999999918</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.9300000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <f>ABS(7.95-8.4)</f>
+        <v>0.45000000000000018</v>
+      </c>
+      <c r="C17">
+        <f>ABS(7.98-8.57)</f>
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="D17">
+        <f>ABS(8-8.59)</f>
+        <v>0.58999999999999986</v>
+      </c>
+      <c r="E17">
+        <f>ABS(7.94-8.24)</f>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="F17">
+        <f>ABS(7.82-8.62)</f>
+        <v>0.79999999999999893</v>
+      </c>
+      <c r="G17">
+        <f>ABS(8.1-8.81)</f>
+        <v>0.71000000000000085</v>
+      </c>
+      <c r="H17">
+        <f>ABS(7.9-8.54)</f>
+        <v>0.63999999999999879</v>
+      </c>
+      <c r="I17">
+        <f>ABS(7.93-8.22)</f>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="0"/>
+        <v>4.3699999999999992</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18">
+        <f>ABS(7.84-8.4)</f>
+        <v>0.5600000000000005</v>
+      </c>
+      <c r="C18">
+        <f>ABS(7.96-8.42)</f>
+        <v>0.45999999999999996</v>
+      </c>
+      <c r="D18">
+        <f>ABS(8.14-8.48)</f>
+        <v>0.33999999999999986</v>
+      </c>
+      <c r="E18">
+        <f>ABS(8.08-8.48)</f>
+        <v>0.40000000000000036</v>
+      </c>
+      <c r="F18">
+        <f>ABS(7.78-8.71)</f>
+        <v>0.9300000000000006</v>
+      </c>
+      <c r="G18">
+        <f>ABS(7.8-8.37)</f>
+        <v>0.5699999999999994</v>
+      </c>
+      <c r="H18">
+        <f>ABS(8.04-8.4)</f>
+        <v>0.36000000000000121</v>
+      </c>
+      <c r="I18">
+        <f>ABS(8.1-8.46)</f>
+        <v>0.36000000000000121</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="0"/>
+        <v>3.9800000000000031</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <f>ABS(8.07-8.33)</f>
+        <v>0.25999999999999979</v>
+      </c>
+      <c r="C19">
+        <f>ABS(8.02-8.37)</f>
+        <v>0.34999999999999964</v>
+      </c>
+      <c r="D19">
+        <f>ABS(8.03-8.49)</f>
+        <v>0.46000000000000085</v>
+      </c>
+      <c r="E19">
+        <f>ABS(7.98-8.31)</f>
+        <v>0.33000000000000007</v>
+      </c>
+      <c r="F19">
+        <f>ABS(7.95-8.49)</f>
+        <v>0.54</v>
+      </c>
+      <c r="G19">
+        <f>ABS(8.05-8.48)</f>
+        <v>0.42999999999999972</v>
+      </c>
+      <c r="H19">
+        <f>ABS(8.06-8.36)</f>
+        <v>0.29999999999999893</v>
+      </c>
+      <c r="I19">
+        <f>ABS(7.85-8.14)</f>
+        <v>0.29000000000000092</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
